--- a/stock-predictor-ai/data/cleaned/CFG.xlsx
+++ b/stock-predictor-ai/data/cleaned/CFG.xlsx
@@ -63,9 +63,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -431,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2700"/>
+  <dimension ref="A1:F2701"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54451,6 +54449,26 @@
         <v>4319800</v>
       </c>
     </row>
+    <row r="2701">
+      <c r="A2701" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B2701" t="n">
+        <v>47.7599983215332</v>
+      </c>
+      <c r="C2701" t="n">
+        <v>47.92499923706055</v>
+      </c>
+      <c r="D2701" t="n">
+        <v>47.26350021362305</v>
+      </c>
+      <c r="E2701" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="F2701" t="n">
+        <v>375741</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
